--- a/yield_prediction/results/graph_descriptors/WLlinear_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.549</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.769</v>
+        <v>16.884</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.657</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.642</v>
+        <v>15.229</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.672</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.684</v>
+        <v>9.638999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.430628943947955</v>
+        <v>5.001361935548456</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.74004857573022</v>
+        <v>14.04824811577117</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.72677247336607</v>
+        <v>19.64087321588775</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.220106991416733</v>
+        <v>-0.5906715323331007</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.70509323415726</v>
+        <v>9.654114976397683</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.32366553146159</v>
+        <v>15.98726088237</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.189116590020481</v>
+        <v>7.201984181096382</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.00188171204127</v>
+        <v>16.33302925431386</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.79438966328855</v>
+        <v>21.97767989426379</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.36312790898376</v>
+        <v>9.79867361951263</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.58527863613895</v>
+        <v>15.11551249976293</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.73569972885512</v>
+        <v>18.92778103669794</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.4565431547488075</v>
+        <v>10.91247362176445</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.84090022918933</v>
+        <v>7.704537933905801</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.95132795375761</v>
+        <v>18.90628151741072</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.388995685529196</v>
+        <v>16.435036522745</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.35575694317423</v>
+        <v>28.71119932345403</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.2427870400943</v>
+        <v>35.42706063874394</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-4.626659110833586</v>
+        <v>1.900446411646723</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.34188441578575</v>
+        <v>15.80209881826103</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.06132426302759</v>
+        <v>23.40720891103838</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.201001636872857</v>
+        <v>8.999467821803183</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.55246017627442</v>
+        <v>21.3898299448816</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.491379730666667</v>
+        <v>3.955035128655684</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.72083310724379</v>
+        <v>23.86799099599871</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.98142854102005</v>
+        <v>25.60938040732255</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.238792169326016</v>
+        <v>2.753203952861224</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.39221116378613</v>
+        <v>25.30283899356183</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.20801823968412</v>
+        <v>27.27480618670916</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>17.89915637645188</v>
+        <v>13.39814120520046</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.53722611813604</v>
+        <v>33.49633786021968</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40.62716201621225</v>
+        <v>35.25392659163836</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.04634485973077</v>
+        <v>37.26300011206544</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>46.8318295461399</v>
+        <v>42.26836606580164</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.25291044602853</v>
+        <v>45.30354754747682</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>13.28338402571771</v>
+        <v>19.79755107902352</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.02445247741041</v>
+        <v>34.68872079607794</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.02987836761007</v>
+        <v>38.80479131703227</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.74750078121734</v>
+        <v>13.72068374737486</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.84448034945129</v>
+        <v>39.41328138000511</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43.04768461528926</v>
+        <v>46.14211617747706</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.750907106469651</v>
+        <v>7.757120000420553</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.18003718246242</v>
+        <v>36.85168053291085</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.14347912848655</v>
+        <v>44.47148192969209</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43.36171175459864</v>
+        <v>46.79544368960714</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.741470880986922</v>
+        <v>-1.473571979830847</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.50230490751429</v>
+        <v>19.45211111439973</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.8094511682601</v>
+        <v>22.74838636804633</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.719816168550779</v>
+        <v>1.23452600637675</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.46069857525848</v>
+        <v>24.93098372444604</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.32796952673599</v>
+        <v>28.66371956027141</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>17.40481044656187</v>
+        <v>12.52796633141351</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.55702226204008</v>
+        <v>33.64831113457416</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>40.69199882675947</v>
+        <v>36.97525007413347</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>37.04057915202394</v>
+        <v>38.19167508745254</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>47.34593063725474</v>
+        <v>41.86230218474584</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.8706194480471</v>
+        <v>47.33953397264285</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.23917816069065</v>
+        <v>11.9943965115489</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>41.7888867114386</v>
+        <v>30.41233030915242</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>49.86515233834228</v>
+        <v>35.71420552233573</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.55081886795064</v>
+        <v>6.723784296738753</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.19833217336409</v>
+        <v>33.77510356252564</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.45767337340958</v>
+        <v>43.7436003704163</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.941846789174255</v>
+        <v>3.249532682403487</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.97961481205457</v>
+        <v>33.8827234993058</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>42.00511847396099</v>
+        <v>45.17115131585368</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>22.19164259873169</v>
+        <v>17.77840301026468</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.10444551743424</v>
+        <v>45.08136787412005</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5.887895092871104</v>
+        <v>-4.342857571467441</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>22.33305315109903</v>
+        <v>14.62605459739149</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.47699291997794</v>
+        <v>21.54520651233717</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.592942324780701</v>
+        <v>2.312868585740592</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.77374862385532</v>
+        <v>23.7934588796483</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.56612960649319</v>
+        <v>31.62877732822603</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>13.25807780520121</v>
+        <v>11.1337098386229</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.16973674263908</v>
+        <v>30.27908080420384</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.11436030833624</v>
+        <v>37.26259830903741</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.56782537340352</v>
+        <v>27.96340223701975</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>37.76151582938051</v>
+        <v>31.74874378278102</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.1603257510528</v>
+        <v>39.13108453477537</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6.183467114042871</v>
+        <v>9.270616475156817</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.20924523080946</v>
+        <v>24.12156867896924</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>40.55891963797094</v>
+        <v>35.49398525488512</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>9.239627773903083</v>
+        <v>6.182271293494335</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.44383731359322</v>
+        <v>30.13149517641656</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>37.53371285567849</v>
+        <v>42.52230596683523</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2.761151109890326</v>
+        <v>3.708418296499158</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.09774518618018</v>
+        <v>30.8287645507532</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.0414391107697</v>
+        <v>44.86024551438858</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>14.89199929552612</v>
+        <v>13.60336358377853</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.44076192570746</v>
+        <v>37.77537574212219</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.18362629138012</v>
+        <v>28.16816573399723</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.14560451558456</v>
+        <v>20.85123780502147</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.84316943654315</v>
+        <v>35.25754689482682</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.58514072979575</v>
+        <v>44.85514180055489</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.562281060070308</v>
+        <v>9.429785632509546</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.4253638682073</v>
+        <v>22.98011133990476</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>42.42762401717853</v>
+        <v>29.44812899077546</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5.171600867160302</v>
+        <v>11.64834805154055</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.91160004184894</v>
+        <v>24.26828496241913</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.46937215634662</v>
+        <v>34.14465190290395</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-4.549085783649907</v>
+        <v>-1.417834291719931</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.48538761804407</v>
+        <v>12.87311143592001</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.94636066642981</v>
+        <v>24.05721044761463</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>10.72661604761057</v>
+        <v>7.286213866603187</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.76134559797703</v>
+        <v>20.02354806743026</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>40.04149411756487</v>
+        <v>29.99179016716264</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.02496787486663</v>
+        <v>28.34318528376114</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>47.67743424836483</v>
+        <v>44.43256849932725</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>57.12509943541663</v>
+        <v>55.16863773349979</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>7.918764510165515</v>
+        <v>4.419607577977342</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>41.00208263201629</v>
+        <v>22.07943739179666</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>54.0250590821661</v>
+        <v>33.51631078064315</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.33123610510361</v>
+        <v>53.58687364704312</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>45.16821592249726</v>
+        <v>50.93027357926903</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>58.56911144472769</v>
+        <v>62.08067377085067</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>66.61817387634296</v>
+        <v>72.54777106017028</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.57004748605961</v>
+        <v>24.17298043523766</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>53.1966083112806</v>
+        <v>60.03001659396595</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>64.15824158037756</v>
+        <v>63.98077261024693</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.21939444954957</v>
+        <v>14.42989446029747</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>43.06895208165221</v>
+        <v>43.97141080354355</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>50.85618017527018</v>
+        <v>51.63116952407519</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>12.80399392011785</v>
+        <v>9.58488918159652</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.27621354411794</v>
+        <v>43.03800465710447</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.88531812526537</v>
+        <v>51.7119938327175</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.55755824751149</v>
+        <v>26.58379515351488</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>53.60096873880973</v>
+        <v>56.40012221761681</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.13557053801247</v>
+        <v>64.13113604202279</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>57.05452194224833</v>
+        <v>73.85622539978712</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>73.35152714267393</v>
+        <v>84.47792806298348</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.98566547155399</v>
+        <v>94.00624935748627</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.87770665019634</v>
+        <v>29.26703929700207</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>67.69306320675544</v>
+        <v>73.62910622758758</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>79.5434474794706</v>
+        <v>80.13856132113656</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51.12828565789523</v>
+        <v>55.14259688172629</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>45.85945292384201</v>
+        <v>46.28050146419231</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>59.78922293740249</v>
+        <v>55.32341837462175</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>67.94960796052833</v>
+        <v>69.80200207370048</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.23135039795685</v>
+        <v>15.46030564162397</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>54.69569795065831</v>
+        <v>55.7178539703693</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>18.60714075070558</v>
+        <v>7.861940896877126</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>43.99076826418929</v>
+        <v>40.45588036248738</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>51.81183861463954</v>
+        <v>50.83516299438006</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>14.67257785392617</v>
+        <v>5.439428930916645</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.73523394738162</v>
+        <v>42.34913959288356</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>51.38175255118733</v>
+        <v>54.10274548106648</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.45037637615355</v>
+        <v>24.66700439743479</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>56.01053093103702</v>
+        <v>57.56414982905139</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>63.57787710682007</v>
+        <v>68.03998600644157</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>59.39324524179111</v>
+        <v>74.18525603586659</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>76.19661730260538</v>
+        <v>82.64962002588555</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>84.91216114404149</v>
+        <v>95.77608639752</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>32.15790456091844</v>
+        <v>22.34678172678037</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>70.78599361314571</v>
+        <v>73.45623838073121</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>82.68787807865031</v>
+        <v>82.65038726857451</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>42.26819295532752</v>
+        <v>50.28145237083164</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.03064490999822</v>
+        <v>31.11667076272833</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>46.78178620660545</v>
+        <v>42.37417802736962</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>55.82923587139584</v>
+        <v>59.33392599144196</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.846525137363347</v>
+        <v>11.46607505572129</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>40.59272187045021</v>
+        <v>46.55796419593381</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>52.90366650179023</v>
+        <v>58.09987488683385</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12.69976721658372</v>
+        <v>8.429891985555269</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.70618702195731</v>
+        <v>37.3805073912964</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>44.44502007353346</v>
+        <v>51.85184245549891</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>5.62998728824145</v>
+        <v>7.652166675096151</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.06454137618271</v>
+        <v>40.43613988088741</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>40.72568482206094</v>
+        <v>56.82362782708945</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21.28866866458588</v>
+        <v>22.09048742062845</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.54873475932968</v>
+        <v>51.31041667595625</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>52.0040703988865</v>
+        <v>65.9163717093835</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.78871376283289</v>
+        <v>60.57424942496951</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>60.52110087868713</v>
+        <v>73.7371606644115</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>70.24265766865946</v>
+        <v>90.85996178554186</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>18.99063732662147</v>
+        <v>17.93244797659331</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>54.0011586771553</v>
+        <v>63.55613957187789</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>67.29966855914438</v>
+        <v>79.31182866736607</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>16.73447408189815</v>
+        <v>23.61868602454472</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>33.71630484479443</v>
+        <v>57.55296263960571</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>38.33070450378474</v>
+        <v>62.96641794782226</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>12.76934162548486</v>
+        <v>18.56064411348216</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.543461923432</v>
+        <v>56.98816628233483</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>36.64487269063611</v>
+        <v>63.1184184820968</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.05843738231304</v>
+        <v>40.92163988384492</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>40.48935876815592</v>
+        <v>75.17159098596132</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>44.95406219727042</v>
+        <v>80.63540510237891</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>39.52800521194211</v>
+        <v>60.46722448402467</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.32355373328237</v>
+        <v>72.85532458999437</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>52.47602306698177</v>
+        <v>73.58831223967485</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>14.7026145240384</v>
+        <v>25.47738730042967</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>40.54508603960461</v>
+        <v>53.61167129656049</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>47.56714940920418</v>
+        <v>65.91552177971676</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.45857441501667</v>
+        <v>13.69432135057905</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.19283293164162</v>
+        <v>46.98685562211611</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>44.56915903430507</v>
+        <v>52.04813817132596</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>9.308497769308918</v>
+        <v>-8.161521007864305</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>32.23108303793519</v>
+        <v>29.53928556270911</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>39.28037677909712</v>
+        <v>35.27073372555445</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.15338518610436</v>
+        <v>15.48915231846705</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>43.21500141801154</v>
+        <v>49.09139125227679</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>21.65302227341413</v>
+        <v>25.83957719468436</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>41.58017940539793</v>
+        <v>70.98225553339758</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.41671810360311</v>
+        <v>71.31782246997142</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.87210747339652</v>
+        <v>25.7603387652992</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>42.90240858847929</v>
+        <v>76.88036976818761</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.14386170702181</v>
+        <v>77.26036920181593</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>33.46131580964946</v>
+        <v>51.50472541519788</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>52.74201391873493</v>
+        <v>97.06734468828014</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>56.4540910571846</v>
+        <v>97.4060332449717</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>52.85145177271476</v>
+        <v>92.4051668401398</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>64.2396040125731</v>
+        <v>104.9585267277041</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>67.60589728050093</v>
+        <v>103.5570246843156</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.05894699668044</v>
+        <v>36.36221148788633</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>57.38353318291676</v>
+        <v>83.0753913760976</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>63.22186966212315</v>
+        <v>87.01111223900119</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.6322806501685</v>
+        <v>14.84521405566248</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>49.52325934035468</v>
+        <v>62.16363306027581</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>55.155766496574</v>
+        <v>65.73266975657646</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>21.2830774299603</v>
+        <v>1.159562022820264</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>47.69554815986736</v>
+        <v>54.74342402528677</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>53.92251911525836</v>
+        <v>58.78503771058979</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>36.5859541046961</v>
+        <v>31.90755200555853</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>59.70188301543421</v>
+        <v>79.66615182845125</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.19761104728071</v>
+        <v>18.53942458011617</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>39.64202350031954</v>
+        <v>64.01437925146973</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>43.5193849744569</v>
+        <v>65.78601333116256</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.60114176906138</v>
+        <v>23.31428258029942</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>42.20329015772704</v>
+        <v>74.81058670322585</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>46.4898745531592</v>
+        <v>76.81680326841374</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>32.19287659332092</v>
+        <v>49.04820090742777</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>51.97404968860162</v>
+        <v>94.94618752232832</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>55.72562526696899</v>
+        <v>96.73430227394027</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>52.07574573637984</v>
+        <v>92.67398401296063</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>63.97013956442582</v>
+        <v>103.7834752824098</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>67.43613313687878</v>
+        <v>104.3544322710441</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.26960354781971</v>
+        <v>27.42533794400751</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>57.38133430564268</v>
+        <v>76.82518353493191</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>63.28179373489799</v>
+        <v>81.6632639760288</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>23.74393917603053</v>
+        <v>7.569831572397494</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>48.17134947523076</v>
+        <v>55.82816170510165</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>53.85379415402568</v>
+        <v>62.37039971420113</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>20.73478044214934</v>
+        <v>-2.880431421021154</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>47.74029862965385</v>
+        <v>51.76779556323773</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>54.02247759349114</v>
+        <v>59.17629284699366</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.03452087152173</v>
+        <v>28.74702084635393</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>59.66947895642095</v>
+        <v>77.45427534494581</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>19.53414323893754</v>
+        <v>14.64759001119542</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>37.66666872571736</v>
+        <v>57.97879195294202</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>42.40293213645681</v>
+        <v>64.12614903111533</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.87670941061406</v>
+        <v>23.58812610661234</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>37.9229705910146</v>
+        <v>72.65682269643099</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>43.15910680491892</v>
+        <v>79.61815277224485</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.42427685419953</v>
+        <v>46.07193761262864</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>46.96856315406276</v>
+        <v>89.80622918264351</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>51.55117693999994</v>
+        <v>96.0107722092427</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.04271064068089</v>
+        <v>81.93819228946145</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>55.82370140398184</v>
+        <v>92.81626683276414</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>60.18027316732547</v>
+        <v>95.85775723248224</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>20.6507658049624</v>
+        <v>24.96945664160152</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.24433212533846</v>
+        <v>70.4033733034348</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>55.45184431829232</v>
+        <v>81.84432276824134</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.64639235328876</v>
+        <v>5.192579248754829</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>43.63430006291028</v>
+        <v>50.07889252614795</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>50.17516927460865</v>
+        <v>59.75628381736414</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>15.98645527598472</v>
+        <v>-3.400526666360935</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>40.29500187524215</v>
+        <v>47.42919391710943</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>47.52620486790666</v>
+        <v>58.38797086699073</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.1397401846962</v>
+        <v>22.40506868849637</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>51.41433584285836</v>
+        <v>67.70893805764233</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>49.38447244773564</v>
+        <v>54.1997565134858</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>42.81131426097119</v>
+        <v>46.22897760566403</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>55.14948678626803</v>
+        <v>63.81085934303535</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>61.71758795809925</v>
+        <v>67.31684225832154</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.5285669744895</v>
+        <v>9.917777989026984</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>48.08137730416327</v>
+        <v>48.8585023253364</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>57.78469068554937</v>
+        <v>56.08518761009617</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.31533920259995</v>
+        <v>5.617147934863436</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>40.93096583760906</v>
+        <v>37.69966062954113</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>47.92456544825572</v>
+        <v>44.19271932451049</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>8.183151676495871</v>
+        <v>-14.07134639147769</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.29120925564537</v>
+        <v>22.25921936045446</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>42.02292453647525</v>
+        <v>29.6120254855202</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.45077895866069</v>
+        <v>10.56567189714421</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>48.30028853951554</v>
+        <v>42.94663299705383</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>55.06700804173073</v>
+        <v>49.50009353870121</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>49.49159934459568</v>
+        <v>46.89799363923393</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>64.85677886611859</v>
+        <v>65.21586838650218</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>72.0755912615609</v>
+        <v>67.69867959674862</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21.79616353199964</v>
+        <v>0.9743106800239154</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>57.73375866873114</v>
+        <v>43.03841783745592</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>68.37642148011012</v>
+        <v>52.91202317976779</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>65.15166540822854</v>
+        <v>83.26838958103453</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>60.45496690393524</v>
+        <v>81.48259861490257</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>75.53010567048838</v>
+        <v>96.13732055564594</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>81.33809753784288</v>
+        <v>99.08666960266831</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>33.15084826054652</v>
+        <v>27.01342590088214</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>69.50746639556516</v>
+        <v>89.2049736262359</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>78.07885706469546</v>
+        <v>92.17176052746946</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.18104909537135</v>
+        <v>6.373162415439676</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>55.92768328765949</v>
+        <v>56.0361454381267</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>62.08917945982918</v>
+        <v>57.42082629202336</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>24.15917719652201</v>
+        <v>-4.519750963513705</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>53.72869387009178</v>
+        <v>51.71911933051565</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>60.54048418685795</v>
+        <v>53.28714610218907</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.9504497818951</v>
+        <v>28.31077078857637</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>68.82939357101705</v>
+        <v>78.43574499703386</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>74.79100399085968</v>
+        <v>79.83330688042442</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>71.16611640296857</v>
+        <v>90.00932869141729</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>89.20487078608946</v>
+        <v>103.6369366265464</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>95.54168315209493</v>
+        <v>103.0034903312924</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>42.40746152153051</v>
+        <v>22.53621836394136</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.10973572871877</v>
+        <v>92.10025470915969</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>92.4861269756782</v>
+        <v>93.61224413422816</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>65.16757884331204</v>
+        <v>84.0573726925581</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>60.38951949355531</v>
+        <v>77.62938236008642</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>75.98114370302372</v>
+        <v>90.10677193369381</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>81.89534636855498</v>
+        <v>96.55026377195483</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>33.07963005168959</v>
+        <v>18.21963907946866</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>70.25257469293756</v>
+        <v>84.29991046238132</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>78.89995887670811</v>
+        <v>89.88327586876646</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.91905207275788</v>
+        <v>-1.788131326940519</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>56.18510196877031</v>
+        <v>50.81058518347501</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>62.37413997628752</v>
+        <v>54.12415729311626</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.3379272941153</v>
+        <v>-9.358828314125166</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>55.48167963417468</v>
+        <v>50.20449662974345</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>62.32391859556861</v>
+        <v>53.95681960234336</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>44.13049826519591</v>
+        <v>24.99180862014866</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>70.51200733798167</v>
+        <v>78.07982605314091</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>76.50026610556236</v>
+        <v>81.42422275314745</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>72.79916689586059</v>
+        <v>89.6892653530835</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>91.33203782581293</v>
+        <v>101.2995223101216</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>97.74466638198466</v>
+        <v>103.5646985067069</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>44.007958393757</v>
+        <v>14.36814018308106</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>85.50066478200019</v>
+        <v>90.51892972165078</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>94.91896841787616</v>
+        <v>93.61809866753443</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>57.74301202112563</v>
+        <v>77.47635353197471</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>51.01331299851327</v>
+        <v>60.69625004566831</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>64.42173566932222</v>
+        <v>75.1957164222125</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>71.24629317463132</v>
+        <v>84.27254270234201</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.13307146426317</v>
+        <v>13.42519739247114</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>57.59364980863633</v>
+        <v>73.64977282231332</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>67.54736025660972</v>
+        <v>84.36037074574996</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>24.22641077418185</v>
+        <v>1.143745846127953</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>49.12564189977707</v>
+        <v>50.22465383293918</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>56.26086404207871</v>
+        <v>58.86634421254242</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.70698433904407</v>
+        <v>-4.427571168229722</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.23412007635788</v>
+        <v>51.15215139742034</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>53.12240495697269</v>
+        <v>60.93809003420874</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.36142182996445</v>
+        <v>24.80805293066467</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>59.45289435167221</v>
+        <v>74.34553733514493</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>66.35664199393628</v>
+        <v>83.06761726331679</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>60.63082520527291</v>
+        <v>80.25525581984803</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>77.09393887790851</v>
+        <v>96.02697292092611</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>84.53578971485004</v>
+        <v>102.5802502846857</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>32.25188869049802</v>
+        <v>13.34679845916918</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>70.14283696967928</v>
+        <v>84.0365765643616</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>81.00101695887793</v>
+        <v>94.97455580206878</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-4.118834894666072</v>
+        <v>7.635793140844267</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>10.72350930604737</v>
+        <v>15.78252998653597</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.82798497378123</v>
+        <v>20.24014614068415</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-9.77401155292106</v>
+        <v>-1.978935356863257</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>6.634817354769955</v>
+        <v>7.246512832078128</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.38356913201177</v>
+        <v>12.29436299039728</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-0.3974815402573597</v>
+        <v>7.549146380459749</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.96336059440767</v>
+        <v>15.77166845663803</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.86980031806069</v>
+        <v>20.27075170050696</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>14.93509489657916</v>
+        <v>11.79654923580899</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>21.40364114594186</v>
+        <v>16.60825998942506</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.63511702801467</v>
+        <v>19.7384096530592</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-7.886038365041301</v>
+        <v>14.2978595557109</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>14.70062278984568</v>
+        <v>12.41664122174845</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.99024183996364</v>
+        <v>22.87958547413023</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-3.47592227166637</v>
+        <v>12.76366068542044</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>15.04010118091148</v>
+        <v>22.580082580159</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>23.12276957355824</v>
+        <v>29.68267832682767</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-13.55906539618547</v>
+        <v>-6.428765158193482</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>6.911168737688667</v>
+        <v>4.687451470138473</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>15.84689485877842</v>
+        <v>12.73050359137143</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-1.762218074963421</v>
+        <v>0.6042809648780327</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.15312509242267</v>
+        <v>10.51202037852339</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1.533427370373104</v>
+        <v>4.465293312422173</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>19.34234982493979</v>
+        <v>23.42455451908279</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>24.72242005715658</v>
+        <v>24.79293300169915</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-0.6652507263086047</v>
+        <v>-0.164894508689617</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.02325384113489</v>
+        <v>21.30476693683512</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.97114527647612</v>
+        <v>22.85433273640882</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>9.977251073665137</v>
+        <v>11.88307021306607</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.20843238168301</v>
+        <v>31.01870043812088</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>32.41396718356181</v>
+        <v>32.39980829701085</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.35770701287007</v>
+        <v>37.64516114822776</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.42818697332402</v>
+        <v>42.43747957260769</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.93787986016691</v>
+        <v>45.13938503888377</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>5.587600977491318</v>
+        <v>21.84488433017216</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>32.68871732241641</v>
+        <v>38.22805962622411</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>40.87595659414279</v>
+        <v>42.43394309179416</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>5.584027692860113</v>
+        <v>8.873059792324103</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>27.2813551928935</v>
+        <v>32.18315095164687</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>34.68346139591642</v>
+        <v>40.43932912344602</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-0.410644714032248</v>
+        <v>-1.589657148638008</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>23.57665337632505</v>
+        <v>24.80692866765802</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>31.75998968758864</v>
+        <v>34.1563093344535</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>12.80970664063432</v>
+        <v>11.34073264104071</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.80314883267805</v>
+        <v>34.8676665270804</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-0.3835721548374309</v>
+        <v>-2.240856689991293</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.96909140133562</v>
+        <v>17.46579223296565</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.40070273572891</v>
+        <v>20.75206071798815</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1.331971149376978</v>
+        <v>-2.879643060092182</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.95766182377509</v>
+        <v>19.43636788514926</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.9625340915161</v>
+        <v>23.157771953782</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>9.33379021023223</v>
+        <v>9.667309803030815</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.09107305697808</v>
+        <v>29.55728033796169</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>32.34647691065747</v>
+        <v>32.87411942068218</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.21135043320794</v>
+        <v>37.24724731866408</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.81436679249146</v>
+        <v>40.62885682808376</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>44.43529956132424</v>
+        <v>45.87057165150561</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>5.403204787976071</v>
+        <v>12.69733905891103</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.33177101897726</v>
+        <v>32.25633530553947</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>41.59744408759315</v>
+        <v>38.04098910944414</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>4.246352879186427</v>
+        <v>0.5653034730253772</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.50734311711224</v>
+        <v>24.92943866047579</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>33.97082275516915</v>
+        <v>36.94723935558713</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-0.3388736239814207</v>
+        <v>-7.405179320212032</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.2715770696736</v>
+        <v>20.18501674203497</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.52276426630615</v>
+        <v>33.79409725585467</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.89985476114011</v>
+        <v>6.814234514893595</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.43867384827513</v>
+        <v>31.40501770091209</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-0.902027654600392</v>
+        <v>-4.916702144299276</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>15.08881568923782</v>
+        <v>12.72235105808707</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.35813477822688</v>
+        <v>19.0458255015682</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-4.17526060015317</v>
+        <v>-2.260331966976761</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>13.50328188413383</v>
+        <v>17.71431242168413</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.43427492053004</v>
+        <v>24.87507960459817</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>5.455779429480675</v>
+        <v>7.980887937857975</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.92786212447456</v>
+        <v>25.78402888948458</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>26.99379756643105</v>
+        <v>32.16632761774466</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.94316703147479</v>
+        <v>26.77188108187024</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.39138914885543</v>
+        <v>29.87418964774794</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.8816192177137</v>
+        <v>36.71245185695362</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-1.443862484454392</v>
+        <v>9.46869203939735</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.89055230231373</v>
+        <v>25.10760632822857</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>32.43102542569359</v>
+        <v>36.31787297210138</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>1.164265781226877</v>
+        <v>-0.04412471234456561</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.93200959714596</v>
+        <v>20.87783586150997</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.22686670966297</v>
+        <v>34.62852145708493</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-6.352149727141423</v>
+        <v>-7.130855965500214</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>15.50191333594896</v>
+        <v>16.56138633240693</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.67222291322651</v>
+        <v>32.1328034442291</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>5.747850235852694</v>
+        <v>2.393268854663571</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.87430657320611</v>
+        <v>23.50985650862023</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>23.97358278050536</v>
+        <v>17.68068820606732</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>17.41183671125157</v>
+        <v>12.08114378158148</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.36040653001757</v>
+        <v>24.24511005555209</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>36.28508002676875</v>
+        <v>33.27081032288976</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-7.140493803809445</v>
+        <v>1.894623507998045</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.03666891414031</v>
+        <v>13.37565921900114</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>33.33664590855897</v>
+        <v>20.42692645298758</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-1.159831901901789</v>
+        <v>10.21050643005578</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.25535138460675</v>
+        <v>21.10632168994017</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.00683202826208</v>
+        <v>30.39975535515093</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-11.86875224377507</v>
+        <v>-7.443336169477508</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>11.80662368223819</v>
+        <v>4.895196553544626</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.48174956725893</v>
+        <v>15.41917595778529</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>3.490944860981951</v>
+        <v>2.862782808826974</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>24.21139590992719</v>
+        <v>13.85995667235374</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>32.67896883968528</v>
+        <v>23.23984274493</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.14176106261167</v>
+        <v>22.4889827627409</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>40.1607935882854</v>
+        <v>36.11568368016137</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>49.80277586411992</v>
+        <v>46.17121502356923</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>0.9921143867183009</v>
+        <v>1.842106892362406</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>33.58113684308476</v>
+        <v>17.12094458800642</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>46.8988934742988</v>
+        <v>28.84049234994195</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.96512252148003</v>
+        <v>43.20064801013866</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.3063324590897</v>
+        <v>41.17244716278175</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>49.00085674710316</v>
+        <v>50.43679382018161</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>57.24155956137513</v>
+        <v>60.87365967487017</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>10.73237480248748</v>
+        <v>15.74144646671578</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>43.7507563723134</v>
+        <v>49.84498449812354</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>55.0150730044625</v>
+        <v>55.62790402267142</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>11.74482423855531</v>
+        <v>13.78645252887426</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>36.31900003670839</v>
+        <v>41.60179750488983</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.30114958979438</v>
+        <v>49.67085360904738</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>5.424071186488108</v>
+        <v>4.637889296019534</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>32.59184473805723</v>
+        <v>36.13627064727977</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>41.41644310075301</v>
+        <v>45.27375236941947</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>22.28484622509674</v>
+        <v>23.38132972603843</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>46.06180857379604</v>
+        <v>51.45542766905889</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>53.78500836467817</v>
+        <v>59.59954637660739</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>50.21773486589274</v>
+        <v>69.40710476689617</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>65.92131789377999</v>
+        <v>77.86578499937502</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>74.75621954913747</v>
+        <v>87.20226968852859</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>22.9899824647108</v>
+        <v>28.22000495636027</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>60.38627070648427</v>
+        <v>70.28355592087381</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>72.53328096342976</v>
+        <v>78.18731287882528</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>41.66002994997964</v>
+        <v>43.53461429823955</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.88600241505237</v>
+        <v>35.0647319933243</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>50.12305842271561</v>
+        <v>42.13082076136074</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>58.48269496151059</v>
+        <v>56.78314193591858</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>11.28213086961917</v>
+        <v>5.609339770957131</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>45.15827851023995</v>
+        <v>43.73382002707289</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>56.5159915063512</v>
+        <v>53.18963209452762</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>12.03539581327662</v>
+        <v>6.192514340559395</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>37.15598813311715</v>
+        <v>36.86255709481503</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>45.17688600721622</v>
+        <v>48.08042414331317</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>7.221372628939636</v>
+        <v>-0.5226542294746288</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.99323237440607</v>
+        <v>34.20841610475637</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>43.86066861778714</v>
+        <v>46.91164356952092</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>24.10549570052958</v>
+        <v>20.34591521601349</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>48.41114821444766</v>
+        <v>51.30126683729593</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>56.17183928794167</v>
+        <v>62.62348838453914</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>52.49249254868262</v>
+        <v>68.63866255708959</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>68.71541632305868</v>
+        <v>74.91696011390697</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>77.63867654141778</v>
+        <v>88.03924320562545</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.20574825770573</v>
+        <v>20.12261308136528</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>63.43355776444347</v>
+        <v>68.68043419654335</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>75.63953412439898</v>
+        <v>79.76322810130752</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>32.90006934434209</v>
+        <v>37.38845821306492</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.13607648980651</v>
+        <v>19.58297227882379</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>37.14798468323998</v>
+        <v>28.33654170804182</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>46.39025251456669</v>
+        <v>45.08392261685903</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>0.9813567008048203</v>
+        <v>1.255183379901876</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.06335219483935</v>
+        <v>33.55752913707268</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>43.68623200378695</v>
+        <v>46.78529295307686</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>6.263530639306252</v>
+        <v>5.567404158028037</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.96053093542291</v>
+        <v>32.50000599733988</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>37.90191482206983</v>
+        <v>47.09376102233512</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-1.757855296302212</v>
+        <v>0.2969388538337476</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>23.33462265330012</v>
+        <v>30.79569284187508</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.21969447281233</v>
+        <v>47.32181040471441</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>13.98703721714626</v>
+        <v>16.16584083868832</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.94772171382574</v>
+        <v>43.34898390411895</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>44.59903721528041</v>
+        <v>58.07849771320257</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.86139521862881</v>
+        <v>53.41871711157785</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>52.97119259464432</v>
+        <v>64.00552061534313</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>62.89849097910767</v>
+        <v>80.74275565052014</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>12.01571335222455</v>
+        <v>13.87847142026063</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.55536881285882</v>
+        <v>56.69280901364098</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>60.16211484787748</v>
+        <v>73.57943918960783</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-0.3765645950135159</v>
+        <v>3.072135699309577</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>13.9026863672018</v>
+        <v>10.33484950075519</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>19.59126688012384</v>
+        <v>14.65551309729371</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-5.619169550596204</v>
+        <v>-5.73576950673392</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>10.16713635906564</v>
+        <v>2.488601938614423</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.45609874276209</v>
+        <v>7.381365618939327</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.488034892904698</v>
+        <v>2.959503916839058</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.30405115668016</v>
+        <v>10.28977930152766</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.80808782445087</v>
+        <v>14.65063598307666</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.02205166055752</v>
+        <v>6.74723106040447</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.28814710936743</v>
+        <v>11.34431669794047</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>30.03802666709147</v>
+        <v>13.51732579576838</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-4.007415482134178</v>
+        <v>5.639123122374546</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.72234625008912</v>
+        <v>3.661373091162989</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>26.37906777332972</v>
+        <v>13.39873413280266</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-0.5804189611320396</v>
+        <v>10.28992054836136</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>17.20462699027848</v>
+        <v>20.57760933533528</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>24.76682957990074</v>
+        <v>27.10029937417674</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-10.07888024728451</v>
+        <v>-7.257855350405432</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>9.583227852734824</v>
+        <v>4.392028730304492</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.94355737887902</v>
+        <v>11.77838969244538</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>1.330708342077358</v>
+        <v>0.6384654540727048</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.5387877271173</v>
+        <v>11.02185573243699</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.949375145326972</v>
+        <v>-0.5867247558122095</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.06602859067829</v>
+        <v>16.63123140985105</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.05525491730436</v>
+        <v>17.95564901316212</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>2.986311041866101</v>
+        <v>-4.632658804863823</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.90948342345756</v>
+        <v>14.86513098934255</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.42528066331869</v>
+        <v>16.36491503923862</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>13.30901401492816</v>
+        <v>6.379333780191519</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.87038428625323</v>
+        <v>23.75746042900572</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>34.69775459123149</v>
+        <v>25.09419846136797</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.703183873221</v>
+        <v>29.76604301941222</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>40.45872317017181</v>
+        <v>34.37840008353935</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>45.51118333573375</v>
+        <v>35.99434011470647</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>8.763106470051778</v>
+        <v>11.28006275080532</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.81074734454278</v>
+        <v>26.1856899196521</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>42.40321137452595</v>
+        <v>29.99026531530579</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>7.982516510937157</v>
+        <v>6.10749599519843</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.80989226757559</v>
+        <v>28.99611423682472</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.71390046307884</v>
+        <v>36.42624986144703</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>2.366706096328258</v>
+        <v>-3.192899677595637</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.39223634716685</v>
+        <v>22.72640589276461</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>33.02490459184074</v>
+        <v>31.14036752429655</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>15.14237722043952</v>
+        <v>10.25639057396753</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.29408986607779</v>
+        <v>33.35793077957302</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.055792798625038</v>
+        <v>-6.995463277438262</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.69158382781912</v>
+        <v>10.76922569790272</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.72894344248798</v>
+        <v>13.93291105002033</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>2.282937652685799</v>
+        <v>-7.150809097876358</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.78003822766992</v>
+        <v>12.96610652600472</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.34904881965127</v>
+        <v>16.54869620024869</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>12.62651599541123</v>
+        <v>4.230994559409471</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.69018245303362</v>
+        <v>22.16094001402811</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.56412454893992</v>
+        <v>25.35405563106937</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.49684839486671</v>
+        <v>29.36743455982558</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>40.7608605931291</v>
+        <v>32.63214036889231</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.9186324334882</v>
+        <v>36.57861630547777</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>8.522387459073411</v>
+        <v>2.675750258890606</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>35.36003727962358</v>
+        <v>20.34813299528719</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>43.02574919097701</v>
+        <v>25.67813254069016</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>6.645482997974327</v>
+        <v>-1.583378987608786</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.01108351419336</v>
+        <v>22.16849801798723</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>34.97259431562311</v>
+        <v>33.14463611566705</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>2.372047785043982</v>
+        <v>-8.399892911233028</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.99260789601719</v>
+        <v>18.49697571921385</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.6888476634659</v>
+        <v>30.92646684589747</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>15.16401918941876</v>
+        <v>6.154195097129769</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.83649598799159</v>
+        <v>30.12702455370225</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>2.671480163921521</v>
+        <v>-8.721913475919386</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>18.04982508508657</v>
+        <v>7.093422131925102</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>23.89166676605012</v>
+        <v>13.20460376111287</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-0.2977178028949297</v>
+        <v>-5.839478941836592</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.70368219716324</v>
+        <v>12.06996897634784</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>23.16208117730153</v>
+        <v>18.99033360346615</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>9.05331518753016</v>
+        <v>3.318846429268302</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.93276958629428</v>
+        <v>19.28130460620003</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.58509546026148</v>
+        <v>25.44933566077028</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.69103171473851</v>
+        <v>20.66666031814176</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.89477637960625</v>
+        <v>23.60578411687753</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.88678421222156</v>
+        <v>29.08368214785996</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>2.119812601138928</v>
+        <v>0.8451864732819949</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.52214454818015</v>
+        <v>14.78790250205595</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>34.41209459812287</v>
+        <v>25.26171656943848</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>3.816641861853725</v>
+        <v>-1.361871697897083</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.79936527438932</v>
+        <v>19.10283428751676</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.55976219207172</v>
+        <v>31.80709778843097</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-3.232233932506329</v>
+        <v>-7.348471119399864</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.75395642031717</v>
+        <v>15.82597140237778</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.33339802037802</v>
+        <v>30.21240942368627</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>8.467622094885956</v>
+        <v>2.689655796433787</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.83452495921117</v>
+        <v>23.34473523928839</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.85566409862111</v>
+        <v>17.60522326428795</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>19.56983206950877</v>
+        <v>12.84690261551598</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.15237790735257</v>
+        <v>24.6661314669389</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>37.4551208397608</v>
+        <v>31.67938270515701</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-4.066288403705158</v>
+        <v>0.7936315060690582</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>22.99849335154579</v>
+        <v>12.80222148431882</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.50644015338575</v>
+        <v>19.30295746932139</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>1.273995352267246</v>
+        <v>7.995279484346593</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.83930400736127</v>
+        <v>19.00054449060748</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.03717249613273</v>
+        <v>28.14338932101888</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-8.894307424200985</v>
+        <v>-8.088614491671837</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>13.84149674473067</v>
+        <v>4.373860244420161</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.90458136404128</v>
+        <v>14.72731131080564</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>5.91736186122342</v>
+        <v>2.739986628168023</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.81550915201626</v>
+        <v>13.84762839718188</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.74742971765954</v>
+        <v>23.07552477841644</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.43029454179201</v>
+        <v>22.34500836449092</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.95474455736747</v>
+        <v>35.40134261829982</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>49.93882885311682</v>
+        <v>43.88640298369964</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>3.276621233750991</v>
+        <v>0.6968997247238882</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.5723284250678</v>
+        <v>16.0860199296665</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>47.04761367948983</v>
+        <v>27.76840275786968</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.97412439777113</v>
+        <v>40.85718543326419</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>37.50693332294524</v>
+        <v>39.33032947366479</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>49.71639793937557</v>
+        <v>48.48545811166944</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>57.35699730222203</v>
+        <v>56.62237363613401</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>12.89298188924529</v>
+        <v>12.67034747839228</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>44.58749541077302</v>
+        <v>45.84447080967249</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>55.09382053122721</v>
+        <v>50.97169685257616</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>13.50756438961073</v>
+        <v>10.71386517664923</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.09336468018476</v>
+        <v>37.59563931930219</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.54791436139843</v>
+        <v>45.21898599211517</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>7.509695844372946</v>
+        <v>2.992594279792353</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.58477915906921</v>
+        <v>33.43379046390379</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.8260939169533</v>
+        <v>42.06654626397876</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>23.76056322997259</v>
+        <v>21.57353190527442</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>46.58121406600263</v>
+        <v>48.70537444808814</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>53.79392990854372</v>
+        <v>56.39963750076195</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>50.36101256407809</v>
+        <v>65.4025986554299</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>65.45308601087974</v>
+        <v>73.81403287747116</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>73.65715510273746</v>
+        <v>81.32750301419017</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.17659904033411</v>
+        <v>24.50240990704553</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>60.06880528659416</v>
+        <v>65.01551482631577</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>71.41292892602267</v>
+        <v>72.69002776911128</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>42.57216767746129</v>
+        <v>41.20526846030798</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>37.9977860868787</v>
+        <v>33.79680173550231</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>50.72539730281239</v>
+        <v>40.86408428543204</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>58.478600289615</v>
+        <v>52.89542133099619</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>13.3571823204072</v>
+        <v>3.274160259939958</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>45.87075111416084</v>
+        <v>40.04646867861671</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>56.46458207992066</v>
+        <v>48.6336217026016</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.72925231643759</v>
+        <v>3.624392745182472</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>37.83670045102394</v>
+        <v>33.12013396039062</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>45.32710987253794</v>
+        <v>43.63172774789874</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>9.167328306255751</v>
+        <v>-1.609857702202593</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.81911501138129</v>
+        <v>31.79142154980349</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>44.10007420381529</v>
+        <v>43.69485794485185</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.43914486108547</v>
+        <v>18.83960158873618</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>48.7645207079655</v>
+        <v>48.60972770051083</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>56.01193296115922</v>
+        <v>59.2191058614593</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>52.47527362218169</v>
+        <v>64.82669482426334</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>68.06325518514788</v>
+        <v>71.21764028736784</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>76.3506770425177</v>
+        <v>82.18595148455445</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.23667097127493</v>
+        <v>17.01358200847711</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>62.92270620678289</v>
+        <v>63.52061881766967</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>74.32140018848938</v>
+        <v>74.08615891354464</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>34.34316601551001</v>
+        <v>36.1671804804345</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.86820423679077</v>
+        <v>20.2096144260042</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.46836153951855</v>
+        <v>28.79879425829003</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.06901871628595</v>
+        <v>42.78476748645976</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>3.656341582966654</v>
+        <v>0.2059458387042064</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>32.54371514860865</v>
+        <v>31.3625906721944</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>44.35326849387363</v>
+        <v>43.57641346144761</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>8.328599880289174</v>
+        <v>3.986220521733454</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.12036960212858</v>
+        <v>29.94516116933172</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>38.49503133990223</v>
+        <v>43.82233346576493</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>0.7252281994270273</v>
+        <v>-0.07903151182641821</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>24.81693609448337</v>
+        <v>29.31713857693922</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>34.07547300459803</v>
+        <v>45.03179052345646</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>15.90538714875838</v>
+        <v>15.7065850015438</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.9902077524499</v>
+        <v>41.90700936681334</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>45.0931861985102</v>
+        <v>55.91327441792936</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.58923033532207</v>
+        <v>51.75754175026049</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>53.15753321697292</v>
+        <v>62.0189618548403</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>62.40852800084883</v>
+        <v>76.44409334619739</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>13.77086529519222</v>
+        <v>12.14545991739511</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>46.93296637682673</v>
+        <v>53.17836831184115</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>59.67729061563657</v>
+        <v>69.39763863285981</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>5.979816284600965</v>
+        <v>10.37670329922851</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>21.8216736440682</v>
+        <v>25.62639222942948</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.33100638070524</v>
+        <v>31.90683242649777</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1.119822889247654</v>
+        <v>-0.1434056749485286</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.6336551704758</v>
+        <v>17.12549815584998</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>24.72445168135866</v>
+        <v>24.23753291765651</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>11.64500135246082</v>
+        <v>16.36986582884841</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.97293133324296</v>
+        <v>31.76141538527115</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>32.30353522089413</v>
+        <v>38.10027953991825</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.75572263959522</v>
+        <v>25.90673221599574</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>34.16983713681029</v>
+        <v>32.32175660108761</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>39.41143998382115</v>
+        <v>34.98890886148929</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>2.436443610589055</v>
+        <v>10.92381899098377</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.54413572469477</v>
+        <v>20.15342234794156</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.92808303309781</v>
+        <v>31.8682031164769</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>4.256676903330169</v>
+        <v>11.12937367555616</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>23.78290476297988</v>
+        <v>26.17948261082207</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.25903730610669</v>
+        <v>31.69533523380484</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-4.979466378324876</v>
+        <v>-7.270796796035594</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.60759074882228</v>
+        <v>9.772100605722233</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>24.87276625832818</v>
+        <v>16.01830857279306</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>7.987029416476123</v>
+        <v>6.034261716900783</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.87980484237177</v>
+        <v>21.22437468030104</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.54769588444482</v>
+        <v>11.6619414286647</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.41081887018727</v>
+        <v>38.39218220882157</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.14812842802733</v>
+        <v>40.5221188238657</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>10.07886497974506</v>
+        <v>7.000172156823535</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.93283208575688</v>
+        <v>37.2697704102437</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>36.1701248587968</v>
+        <v>39.68173243381986</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>21.92294451808117</v>
+        <v>26.40152411584101</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>40.1741269257754</v>
+        <v>53.38042365312801</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>44.75775292064514</v>
+        <v>55.53017405870109</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>41.02106593342474</v>
+        <v>57.03065609128031</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>51.09604330130907</v>
+        <v>63.47213616946597</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>55.56110852171464</v>
+        <v>65.2797343956853</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>15.69351025250205</v>
+        <v>21.51051293236253</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>44.39887925893127</v>
+        <v>50.08357613764576</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>51.60798344906333</v>
+        <v>54.5285039042603</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.25902095773757</v>
+        <v>10.92823167732847</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>36.02647775679684</v>
+        <v>40.37489391211512</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>42.76990985009976</v>
+        <v>45.74903388465719</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>8.053991970753781</v>
+        <v>1.564210906168629</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.22436251512158</v>
+        <v>34.90991261839758</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>40.67950719936422</v>
+        <v>40.99564372962394</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.50255433466577</v>
+        <v>21.3292626614932</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>44.5314096473842</v>
+        <v>51.04985323433851</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.226892372290159</v>
+        <v>5.64014165461251</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.62898300526241</v>
+        <v>32.62584800623586</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>33.41384578927809</v>
+        <v>36.8979679477183</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.982617056108172</v>
+        <v>5.602520897700483</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.43243531545422</v>
+        <v>36.161410979031</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.72230015809392</v>
+        <v>40.99920332750102</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>20.83805022169345</v>
+        <v>25.09778974551382</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>39.61071556987775</v>
+        <v>52.3345313293534</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>44.24035211165778</v>
+        <v>56.64639277723134</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.43465194313869</v>
+        <v>57.82322229895291</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>51.03682916038707</v>
+        <v>62.76351466461372</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>55.61122144351621</v>
+        <v>67.11254250796529</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>15.08330817755328</v>
+        <v>13.45838922857947</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>44.60886296170302</v>
+        <v>44.60485899308432</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>51.89033231140284</v>
+        <v>50.85697565564857</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>11.52784894604531</v>
+        <v>3.795875838710916</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.85474060641086</v>
+        <v>33.89240539330612</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>41.65551782434233</v>
+        <v>43.20897739362775</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>7.706291934722063</v>
+        <v>-2.732019758076181</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.49514098895821</v>
+        <v>31.34959835873965</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>41.01368309385025</v>
+        <v>41.89977985047415</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>22.16166036766711</v>
+        <v>17.9377081823282</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>44.73180185588458</v>
+        <v>48.31421148255755</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>8.93820805400324</v>
+        <v>1.687248202473906</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.94521947471491</v>
+        <v>25.67295288552561</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.60134638357952</v>
+        <v>34.46996867622867</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>6.453553268275377</v>
+        <v>4.699680085242182</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.25551183087146</v>
+        <v>31.86133757095472</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.50859540531797</v>
+        <v>41.82316829308535</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>17.23781884272348</v>
+        <v>21.25079523643594</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.6931039979856</v>
+        <v>45.45962755849428</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.16573989251845</v>
+        <v>54.33847781642586</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>33.50430098582648</v>
+        <v>45.74435731952083</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.91310022519905</v>
+        <v>50.36715579272389</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.39124159725273</v>
+        <v>56.72166456343835</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>8.609780546425453</v>
+        <v>10.24624222701179</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.49057127747702</v>
+        <v>36.09170795736814</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.09790582058928</v>
+        <v>49.23202667504476</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>8.613016314357226</v>
+        <v>1.178771947287306</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.40852218397288</v>
+        <v>26.71817912899577</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>37.07869070127255</v>
+        <v>39.20383007154108</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1.938071919639611</v>
+        <v>-4.538082752346266</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>24.92836868469126</v>
+        <v>24.38300334556024</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.40805903491727</v>
+        <v>38.52188226818271</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.21342059553798</v>
+        <v>10.4959608607399</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.33429724854737</v>
+        <v>36.27294903918691</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>34.1134033749078</v>
+        <v>26.79153866516139</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.08072356508875</v>
+        <v>21.90627187280031</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>37.96457307519445</v>
+        <v>35.18946349472519</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>45.88586523490304</v>
+        <v>39.91116215969826</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>1.190890028283272</v>
+        <v>2.311117049053149</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.90535334586572</v>
+        <v>19.97064269611412</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.2823211763593</v>
+        <v>26.66521243190452</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>5.48561875310893</v>
+        <v>4.445029457646822</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.98014956163685</v>
+        <v>20.64699025259451</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.20150822219203</v>
+        <v>29.79113281590084</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-4.811949899603338</v>
+        <v>-12.78334110320862</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>20.05668960938736</v>
+        <v>5.563925134098643</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.14574359072143</v>
+        <v>15.91884576649122</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>11.70765714863414</v>
+        <v>2.972849266788696</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.47244049189269</v>
+        <v>19.32552922166039</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>41.42708918216034</v>
+        <v>28.55473540797065</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.27450556564306</v>
+        <v>25.61927357515307</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>49.27522461424683</v>
+        <v>40.95885967634145</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>58.02876068460866</v>
+        <v>49.74371816910555</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>7.834093986272119</v>
+        <v>-4.408338031114386</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>42.06563708617906</v>
+        <v>18.42934261414993</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>54.57666902208091</v>
+        <v>31.19612795674206</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>51.0560773432799</v>
+        <v>56.47398628315285</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>45.87545778405233</v>
+        <v>55.80271276518414</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>59.57162223699762</v>
+        <v>65.95294243335282</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>66.74854462431055</v>
+        <v>71.49046763749105</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>18.91239030752719</v>
+        <v>18.45515423838898</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>53.55926448890649</v>
+        <v>60.2000114009157</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>63.82122942198664</v>
+        <v>64.28891982154477</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.2599072587609</v>
+        <v>7.836100361327464</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>43.96898189759852</v>
+        <v>42.04364588535344</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>51.36819711917121</v>
+        <v>47.75658702290673</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>12.29991032265353</v>
+        <v>-0.1963429246013426</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.72236175074234</v>
+        <v>38.54063175379133</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>48.90250196175711</v>
+        <v>45.01002477202495</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>30.37263648852106</v>
+        <v>23.67292925568664</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>55.24768030396577</v>
+        <v>58.1986913578626</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>62.40685679795364</v>
+        <v>63.96477727830418</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>58.1866688109715</v>
+        <v>72.35210456116906</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>74.9338111184569</v>
+        <v>82.70293646116619</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>82.81978318892023</v>
+        <v>89.94007371934055</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.62674911444626</v>
+        <v>20.12871908625021</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>68.75009443109792</v>
+        <v>71.40840668832092</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>80.01001164914322</v>
+        <v>77.83729376228884</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.31195433712591</v>
+        <v>57.71745113518774</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>46.02820835767182</v>
+        <v>51.04568412473407</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>60.26272366839225</v>
+        <v>58.82385783007182</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>67.55626188824655</v>
+        <v>68.61260268146565</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>19.05006049913257</v>
+        <v>9.343926901455543</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>54.54826688785949</v>
+        <v>54.64591320265387</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>64.89749801564372</v>
+        <v>62.57588283669619</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>18.17463561388308</v>
+        <v>0.06664884690547623</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.42539808739509</v>
+        <v>36.85062247335614</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>51.85841584689287</v>
+        <v>45.63809252005265</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>13.70083056486843</v>
+        <v>-5.267523530407349</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.72214042666359</v>
+        <v>36.38702470186134</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>50.9396507494325</v>
+        <v>46.33804572575677</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.78498167085571</v>
+        <v>20.25212201059621</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>57.18414036834704</v>
+        <v>57.37827950434735</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>64.37602280853355</v>
+        <v>66.24749521872172</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>60.05961584377265</v>
+        <v>71.4070537267994</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>77.32194397469144</v>
+        <v>79.50846895061807</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>85.29255333807521</v>
+        <v>90.4884092661717</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.45723527153391</v>
+        <v>11.69760545588612</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>71.40490587050611</v>
+        <v>69.16871437984254</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>82.71626283822661</v>
+        <v>78.61374986342636</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.75563701359125</v>
+        <v>48.87474807297754</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>35.52867658271686</v>
+        <v>32.17118913999695</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.4925273414928</v>
+        <v>41.82779469912496</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>55.70845385075044</v>
+        <v>54.00130270710802</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>9.03098803128962</v>
+        <v>3.527965153361631</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>40.67700285682646</v>
+        <v>41.24841136159603</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>52.34924916498147</v>
+        <v>54.45549931717257</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>12.63018118119675</v>
+        <v>-0.6025135020791659</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>36.42458331344514</v>
+        <v>31.41446370156924</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>44.81790007460063</v>
+        <v>45.56027156181081</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>5.016208905861408</v>
+        <v>-4.810424567214216</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.3219102336941</v>
+        <v>31.44592812388892</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>40.60107104814639</v>
+        <v>47.46478573243856</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.92606869331247</v>
+        <v>15.44243828551896</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.94855409649659</v>
+        <v>47.75725424879577</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>53.06958237634267</v>
+        <v>62.0346538530075</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>46.72806514591451</v>
+        <v>55.89901314588946</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>61.83708773521717</v>
+        <v>68.2054162797925</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>70.85316551721908</v>
+        <v>83.30299701183455</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>18.58969816851109</v>
+        <v>6.308803458578293</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>54.79934881913861</v>
+        <v>56.47650134526819</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>67.57206174684177</v>
+        <v>73.94468108011702</v>
       </c>
     </row>
   </sheetData>
